--- a/Datafiles/Simulation Passive and Active properties.xlsx
+++ b/Datafiles/Simulation Passive and Active properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive - Drexel University\Documents\Kenyon_cell_work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive - Drexel University\Documents\KC_NaChBac_Model\Datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E684A103-509F-4956-91BE-B92BCA4C0ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4770132-F594-4724-871D-F9808CBF5B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>WT</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>nachbac_everywhere</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
 </sst>
 </file>
@@ -439,7 +436,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,8 +655,8 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
+      <c r="B5">
+        <v>14</v>
       </c>
       <c r="C5">
         <v>125</v>

--- a/Datafiles/Simulation Passive and Active properties.xlsx
+++ b/Datafiles/Simulation Passive and Active properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive - Drexel University\Documents\KC_NaChBac_Model\Datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4770132-F594-4724-871D-F9808CBF5B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38A0601-4E31-4B80-B620-B7BE2177A3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>WT</t>
   </si>
   <si>
     <t>nachbac</t>
-  </si>
-  <si>
-    <t>nachbac2days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nachbac4days </t>
   </si>
   <si>
     <t>Capacitance</t>
@@ -436,7 +430,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,52 +447,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
       <c r="P1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -545,10 +539,10 @@
         <v>0.06</v>
       </c>
       <c r="O2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -595,10 +589,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -645,10 +639,10 @@
         <v>3.9750000000000001E-2</v>
       </c>
       <c r="O4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -695,10 +689,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -745,10 +739,10 @@
         <v>0.03</v>
       </c>
       <c r="O6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -795,311 +789,21 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="O7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>80</v>
-      </c>
-      <c r="D8">
-        <v>-91.5</v>
-      </c>
-      <c r="E8">
-        <v>7.5549999999999993E-5</v>
-      </c>
-      <c r="F8">
-        <v>1.8</v>
-      </c>
-      <c r="G8">
-        <v>2.2222220000000001E-2</v>
-      </c>
-      <c r="H8">
-        <v>1.6666670000000001E-2</v>
-      </c>
-      <c r="I8">
-        <v>1E-4</v>
-      </c>
-      <c r="J8">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="K8">
-        <v>3.1250000000000001E-4</v>
-      </c>
-      <c r="L8">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="M8">
-        <v>0.2</v>
-      </c>
-      <c r="N8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="O8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>160</v>
-      </c>
-      <c r="D9">
-        <v>-90.75</v>
-      </c>
-      <c r="E9">
-        <v>2.9499999999999999E-5</v>
-      </c>
-      <c r="F9">
-        <v>1.25</v>
-      </c>
-      <c r="G9">
-        <v>0.01</v>
-      </c>
-      <c r="H9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="I9">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="J9">
-        <v>1.5499999999999999E-3</v>
-      </c>
-      <c r="K9">
-        <v>1.25E-3</v>
-      </c>
-      <c r="L9">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="M9">
-        <v>0.33</v>
-      </c>
-      <c r="N9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="O9" t="s">
         <v>8</v>
       </c>
-      <c r="P9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>150</v>
-      </c>
-      <c r="D10">
-        <v>-84.75</v>
-      </c>
-      <c r="E10">
-        <v>4.8999999999999998E-5</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>1.8181820000000001E-2</v>
-      </c>
-      <c r="H10">
-        <v>1.363636E-2</v>
-      </c>
-      <c r="I10">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="J10">
-        <v>0.01</v>
-      </c>
-      <c r="K10">
-        <v>1E-3</v>
-      </c>
-      <c r="L10">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="M10">
-        <v>0.25</v>
-      </c>
-      <c r="N10">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="O10" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>-85</v>
-      </c>
-      <c r="E11" s="1">
-        <v>9.2499999999999999E-5</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I11">
-        <v>3.6000000000000001E-5</v>
-      </c>
-      <c r="J11">
-        <v>5.5000000000000003E-4</v>
-      </c>
-      <c r="K11">
-        <v>1.25E-3</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="M11">
-        <v>0.30769231000000002</v>
-      </c>
-      <c r="N11">
-        <v>2.3076920000000001E-2</v>
-      </c>
-      <c r="O11" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" t="s">
-        <v>10</v>
-      </c>
+      <c r="E11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>150</v>
-      </c>
-      <c r="D12">
-        <v>-92</v>
-      </c>
-      <c r="E12">
-        <v>4.5500000000000001E-5</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2.1052629999999999E-2</v>
-      </c>
-      <c r="H12">
-        <v>1.578947E-2</v>
-      </c>
-      <c r="I12">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="J12">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="K12">
-        <v>2.0833000000000001E-4</v>
-      </c>
-      <c r="L12" s="1">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="M12">
-        <v>0.2</v>
-      </c>
-      <c r="N12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="O12" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" t="s">
-        <v>10</v>
-      </c>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>120</v>
-      </c>
-      <c r="D13">
-        <v>-89.75</v>
-      </c>
-      <c r="E13">
-        <v>3.5500000000000002E-5</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.01</v>
-      </c>
-      <c r="H13">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="I13">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="J13">
-        <v>3.15E-3</v>
-      </c>
-      <c r="K13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="L13" s="1">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="M13">
-        <v>0.33</v>
-      </c>
-      <c r="N13">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="O13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P13" t="s">
-        <v>10</v>
-      </c>
+      <c r="L13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
